--- a/data/제주지역사업체분포(test).xlsx
+++ b/data/제주지역사업체분포(test).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workpython\git\Python-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workpython\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E38689-ABA6-4D31-AC5F-4222A832DBD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF6CD01-DC5A-4AE7-A5D8-68B0B56D1EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="10560" xr2:uid="{410CCF74-EC9F-4D56-ACAE-8B1A7E1228DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>제주도 사업체 분포 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,130 @@
   </si>
   <si>
     <t>세대수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 이도1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 성산읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 삼도1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 일도1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 중앙동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 표선면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 외도동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 남원읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 삼도2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 용담2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 안덕면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 도두동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 오라동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 삼양동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 용담1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 건입동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 중문동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 천지동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 대륜동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 한경면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 정방동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 서홍동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 대천동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 영천동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 예래동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 송산동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 우도면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 효돈동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 이호동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 봉개동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 추자면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,12 +330,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -234,6 +355,13 @@
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -550,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8105D35-9C0C-42E0-A3A6-122D0E2D59B6}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,18 +691,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -597,7 +725,7 @@
       <c r="C3">
         <v>4988</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>19526</v>
       </c>
       <c r="E3">
@@ -611,7 +739,7 @@
       <c r="C4">
         <v>4681</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>19336</v>
       </c>
       <c r="E4">
@@ -625,7 +753,7 @@
       <c r="C5">
         <v>4318</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>21026</v>
       </c>
       <c r="E5">
@@ -639,7 +767,7 @@
       <c r="C6">
         <v>2232</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>15563</v>
       </c>
       <c r="E6">
@@ -653,7 +781,7 @@
       <c r="C7">
         <v>2173</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>13187</v>
       </c>
       <c r="E7">
@@ -667,7 +795,7 @@
       <c r="C8">
         <v>2065</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>10204</v>
       </c>
       <c r="E8">
@@ -681,7 +809,7 @@
       <c r="C9">
         <v>1909</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>13337</v>
       </c>
       <c r="E9">
@@ -695,7 +823,7 @@
       <c r="C10">
         <v>1688</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>10538</v>
       </c>
       <c r="E10">
@@ -709,7 +837,7 @@
       <c r="C11">
         <v>1655</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9924</v>
       </c>
       <c r="E11">
@@ -723,7 +851,7 @@
       <c r="C12">
         <v>1651</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>8933</v>
       </c>
       <c r="E12">
@@ -737,7 +865,7 @@
       <c r="C13">
         <v>1561</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>7670</v>
       </c>
       <c r="E13">
@@ -751,11 +879,445 @@
       <c r="C14">
         <v>1516</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>9542</v>
       </c>
       <c r="E14">
         <v>25391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1510</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7851</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>1484</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7753</v>
+      </c>
+      <c r="E16">
+        <v>17180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>1385</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5952</v>
+      </c>
+      <c r="E17">
+        <v>14345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1329</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1623</v>
+      </c>
+      <c r="E18">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1277</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2124</v>
+      </c>
+      <c r="E19">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1140</v>
+      </c>
+      <c r="D20">
+        <v>5922</v>
+      </c>
+      <c r="E20">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1106</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8167</v>
+      </c>
+      <c r="E21">
+        <v>21741</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1070</v>
+      </c>
+      <c r="D22">
+        <v>8438</v>
+      </c>
+      <c r="E22">
+        <v>19778</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1025</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4161</v>
+      </c>
+      <c r="E23">
+        <v>8662</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1021</v>
+      </c>
+      <c r="D24">
+        <v>6456</v>
+      </c>
+      <c r="E24">
+        <v>15673</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>966</v>
+      </c>
+      <c r="D25">
+        <v>6033</v>
+      </c>
+      <c r="E25">
+        <v>12537</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>952</v>
+      </c>
+      <c r="D26">
+        <v>1412</v>
+      </c>
+      <c r="E26">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>924</v>
+      </c>
+      <c r="D27">
+        <v>5565</v>
+      </c>
+      <c r="E27">
+        <v>14906</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>857</v>
+      </c>
+      <c r="D28">
+        <v>9273</v>
+      </c>
+      <c r="E28">
+        <v>25153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>784</v>
+      </c>
+      <c r="D29">
+        <v>3543</v>
+      </c>
+      <c r="E29">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>767</v>
+      </c>
+      <c r="D30">
+        <v>4235</v>
+      </c>
+      <c r="E30">
+        <v>9857</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>721</v>
+      </c>
+      <c r="D31">
+        <v>5155</v>
+      </c>
+      <c r="E31">
+        <v>11482</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>690</v>
+      </c>
+      <c r="D32">
+        <v>1921</v>
+      </c>
+      <c r="E32">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>688</v>
+      </c>
+      <c r="D33">
+        <v>5844</v>
+      </c>
+      <c r="E33">
+        <v>14156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>637</v>
+      </c>
+      <c r="D34">
+        <v>4657</v>
+      </c>
+      <c r="E34">
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>587</v>
+      </c>
+      <c r="D35">
+        <v>1342</v>
+      </c>
+      <c r="E35">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>492</v>
+      </c>
+      <c r="D36">
+        <v>4240</v>
+      </c>
+      <c r="E36">
+        <v>10697</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>491</v>
+      </c>
+      <c r="D37">
+        <v>6089</v>
+      </c>
+      <c r="E37">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>457</v>
+      </c>
+      <c r="D38">
+        <v>2430</v>
+      </c>
+      <c r="E38">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>419</v>
+      </c>
+      <c r="D39">
+        <v>1985</v>
+      </c>
+      <c r="E39">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>363</v>
+      </c>
+      <c r="D40">
+        <v>2088</v>
+      </c>
+      <c r="E40">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>278</v>
+      </c>
+      <c r="D41">
+        <v>999</v>
+      </c>
+      <c r="E41">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>278</v>
+      </c>
+      <c r="D42">
+        <v>2262</v>
+      </c>
+      <c r="E42">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>272</v>
+      </c>
+      <c r="D43">
+        <v>1829</v>
+      </c>
+      <c r="E43">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>257</v>
+      </c>
+      <c r="D44">
+        <v>2094</v>
+      </c>
+      <c r="E44">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>212</v>
+      </c>
+      <c r="D45">
+        <v>1049</v>
+      </c>
+      <c r="E45">
+        <v>2149</v>
       </c>
     </row>
   </sheetData>

--- a/data/제주지역사업체분포(test).xlsx
+++ b/data/제주지역사업체분포(test).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workpython\Python-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF6CD01-DC5A-4AE7-A5D8-68B0B56D1EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C0ED59-42C5-46FB-A967-0C9AE6668639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="10560" xr2:uid="{410CCF74-EC9F-4D56-ACAE-8B1A7E1228DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>제주도 사업체 분포 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>제주시 추자면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관(유치원,초중고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,12 +361,12 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8105D35-9C0C-42E0-A3A6-122D0E2D59B6}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,12 +695,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -717,6 +721,9 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -731,6 +738,9 @@
       <c r="E3">
         <v>50137</v>
       </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -745,6 +755,9 @@
       <c r="E4">
         <v>43217</v>
       </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -759,6 +772,9 @@
       <c r="E5">
         <v>56223</v>
       </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -773,6 +789,9 @@
       <c r="E6">
         <v>36550</v>
       </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -787,6 +806,9 @@
       <c r="E7">
         <v>34684</v>
       </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -801,6 +823,9 @@
       <c r="E8">
         <v>25003</v>
       </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -815,6 +840,9 @@
       <c r="E9">
         <v>34321</v>
       </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -829,6 +857,9 @@
       <c r="E10">
         <v>24718</v>
       </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -843,6 +874,9 @@
       <c r="E11">
         <v>23094</v>
       </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -857,6 +891,9 @@
       <c r="E12">
         <v>24163</v>
       </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -871,6 +908,9 @@
       <c r="E13">
         <v>16283</v>
       </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -885,6 +925,9 @@
       <c r="E14">
         <v>25391</v>
       </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -893,11 +936,14 @@
       <c r="C15">
         <v>1510</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>7851</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>7989</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -907,56 +953,68 @@
       <c r="C16">
         <v>1484</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>7753</v>
       </c>
       <c r="E16">
         <v>17180</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>1385</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>5952</v>
       </c>
       <c r="E17">
         <v>14345</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
         <v>1329</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>1623</v>
       </c>
       <c r="E18">
         <v>2993</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
         <v>1277</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>2124</v>
       </c>
       <c r="E19">
         <v>3984</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -969,22 +1027,28 @@
       <c r="E20">
         <v>12824</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21">
         <v>1106</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>8167</v>
       </c>
       <c r="E21">
         <v>21741</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -997,22 +1061,28 @@
       <c r="E22">
         <v>19778</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
         <v>1025</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>4161</v>
       </c>
       <c r="E23">
         <v>8662</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1025,8 +1095,11 @@
       <c r="E24">
         <v>15673</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1039,8 +1112,11 @@
       <c r="E25">
         <v>12537</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -1053,8 +1129,11 @@
       <c r="E26">
         <v>3257</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -1067,8 +1146,11 @@
       <c r="E27">
         <v>14906</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -1081,8 +1163,11 @@
       <c r="E28">
         <v>25153</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -1095,8 +1180,11 @@
       <c r="E29">
         <v>7610</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1197,11 @@
       <c r="E30">
         <v>9857</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1123,8 +1214,11 @@
       <c r="E31">
         <v>11482</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>34</v>
       </c>
@@ -1137,8 +1231,11 @@
       <c r="E32">
         <v>3657</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>35</v>
       </c>
@@ -1151,8 +1248,11 @@
       <c r="E33">
         <v>14156</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1165,8 +1265,11 @@
       <c r="E34">
         <v>9447</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -1179,8 +1282,11 @@
       <c r="E35">
         <v>2444</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -1193,8 +1299,11 @@
       <c r="E36">
         <v>10697</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -1207,8 +1316,11 @@
       <c r="E37">
         <v>13930</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -1221,8 +1333,11 @@
       <c r="E38">
         <v>5478</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>41</v>
       </c>
@@ -1235,8 +1350,11 @@
       <c r="E39">
         <v>4414</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>42</v>
       </c>
@@ -1249,8 +1367,11 @@
       <c r="E40">
         <v>5027</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>43</v>
       </c>
@@ -1263,8 +1384,11 @@
       <c r="E41">
         <v>1892</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>44</v>
       </c>
@@ -1277,8 +1401,11 @@
       <c r="E42">
         <v>5396</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>45</v>
       </c>
@@ -1291,8 +1418,11 @@
       <c r="E43">
         <v>4654</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -1305,8 +1435,11 @@
       <c r="E44">
         <v>4936</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>47</v>
       </c>
@@ -1318,6 +1451,9 @@
       </c>
       <c r="E45">
         <v>2149</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1326,5 +1462,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/제주지역사업체분포(test).xlsx
+++ b/data/제주지역사업체분포(test).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workpython\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C0ED59-42C5-46FB-A967-0C9AE6668639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C90F2FB-0466-44BA-BACC-BC36F4000149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="10560" xr2:uid="{410CCF74-EC9F-4D56-ACAE-8B1A7E1228DD}"/>
   </bookViews>
@@ -684,14 +684,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8105D35-9C0C-42E0-A3A6-122D0E2D59B6}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="3" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
